--- a/CHATGAME/Assets/StreamingAssets/Excel/UI text.xlsx
+++ b/CHATGAME/Assets/StreamingAssets/Excel/UI text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\AIChatGame\AI-CHATBOT-GAME\CHATGAME\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC7EBF-AC92-48B7-BC29-16B93BE5E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9370FE6-1C30-45E1-8660-169921EAB908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="1335" windowWidth="17670" windowHeight="13245" xr2:uid="{52C131E0-3625-409F-9DBC-C4D8ECB4944A}"/>
+    <workbookView xWindow="1830" yWindow="765" windowWidth="19470" windowHeight="13245" xr2:uid="{52C131E0-3625-409F-9DBC-C4D8ECB4944A}"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>KO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,111 @@
   </si>
   <si>
     <t>EOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 할 수 없다구!
+내 얘기 상대를 더 해주면 허락할께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>まだダメよ！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>もっと私と話してくれたら許すわ。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not yet!
+If you talk to me more, I'll allow it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还不行呢！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="3"/>
+      </rPr>
+      <t>如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你多跟我聊聊天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，我就答应你。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +575,86 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Gulim"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Gulim"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -611,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +835,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,23 +1182,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05533CD-8686-4012-9E6D-F284907C7539}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1"/>
-    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="5" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1018,7 +1215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1035,7 +1232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1052,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1069,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1086,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1103,7 +1300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1120,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1137,7 +1334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1154,7 +1351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1171,7 +1368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1188,7 +1385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1205,7 +1402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1222,7 +1419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1239,10 +1436,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" ht="27" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C16" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CHATGAME/Assets/StreamingAssets/Excel/UI text.xlsx
+++ b/CHATGAME/Assets/StreamingAssets/Excel/UI text.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\AIChatGame\AI-CHATBOT-GAME\CHATGAME\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9370FE6-1C30-45E1-8660-169921EAB908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E87E8E3-3683-4996-8D6B-9A36301E1F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="765" windowWidth="19470" windowHeight="13245" xr2:uid="{52C131E0-3625-409F-9DBC-C4D8ECB4944A}"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>KO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,86 +62,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>はじめから</t>
+  </si>
+  <si>
+    <r>
+      <t>新游</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202223"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>戏</t>
+    </r>
+  </si>
+  <si>
+    <t>NEW GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이어하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갤러리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOAD GAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEW GAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GALLERY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXIT GAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gallery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰담쓰담</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はじめから</t>
-  </si>
-  <si>
-    <t>終了</t>
-  </si>
-  <si>
-    <t>退出</t>
-  </si>
-  <si>
-    <t>SNS </t>
-  </si>
-  <si>
-    <t>なでなで</t>
-  </si>
-  <si>
-    <r>
-      <t>新游</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202223"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>戏</t>
-    </r>
   </si>
   <si>
     <r>
@@ -177,6 +125,14 @@
     </r>
   </si>
   <si>
+    <t>LOAD GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤러리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>ギャラリ</t>
     </r>
@@ -216,6 +172,31 @@
     </r>
   </si>
   <si>
+    <t>GALLERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>EXIT GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS </t>
+  </si>
+  <si>
     <r>
       <t>社交</t>
     </r>
@@ -229,6 +210,10 @@
       </rPr>
       <t>网络</t>
     </r>
+  </si>
+  <si>
+    <t>데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -280,6 +265,10 @@
     </r>
   </si>
   <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>ギャラリ</t>
     </r>
@@ -318,6 +307,17 @@
     </r>
   </si>
   <si>
+    <t>Gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰담쓰담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なでなで</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -341,6 +341,20 @@
     </r>
   </si>
   <si>
+    <t>Pat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サウンド </t>
+  </si>
+  <si>
+    <t>声音 </t>
+  </si>
+  <si>
     <t>Sound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,66 +363,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>背景音乐 </t>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言語 </t>
+  </si>
+  <si>
+    <t>语言 </t>
+  </si>
+  <si>
     <t>Language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>언어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>계정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アカウント </t>
+  </si>
+  <si>
+    <t>账户 </t>
   </si>
   <si>
     <t>Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>저장하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>セーブ </t>
+  </si>
+  <si>
+    <t>保存 </t>
   </si>
   <si>
     <t>Save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>サウンド </t>
-  </si>
-  <si>
-    <t>言語 </t>
-  </si>
-  <si>
-    <t>アカウント </t>
-  </si>
-  <si>
-    <t>セーブ </t>
-  </si>
-  <si>
-    <t>声音 </t>
-  </si>
-  <si>
-    <t>背景音乐 </t>
-  </si>
-  <si>
-    <t>语言 </t>
-  </si>
-  <si>
-    <t>账户 </t>
-  </si>
-  <si>
-    <t>保存 </t>
-  </si>
-  <si>
-    <t>음성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,11 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Not yet!
-If you talk to me more, I'll allow it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -514,6 +505,27 @@
       </rPr>
       <t>，我就答应你。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not yet!
+If you talk to me more, I'll allow it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+  </si>
+  <si>
+    <t>イベント</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>EOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,12 +587,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -796,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,13 +845,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1182,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05533CD-8686-4012-9E6D-F284907C7539}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1200,19 +1203,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1220,13 +1223,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -1237,16 +1240,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1254,16 +1257,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1271,16 +1274,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1288,16 +1291,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1305,16 +1308,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1322,16 +1325,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1339,16 +1342,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1356,16 +1359,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1373,16 +1376,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1390,16 +1393,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1407,16 +1410,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1424,16 +1427,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" customHeight="1">
@@ -1441,23 +1444,39 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="14"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CHATGAME/Assets/StreamingAssets/Excel/UI text.xlsx
+++ b/CHATGAME/Assets/StreamingAssets/Excel/UI text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\AIChatGame\AI-CHATBOT-GAME\CHATGAME\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E87E8E3-3683-4996-8D6B-9A36301E1F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5550308-FD33-49A2-A998-47F8469968C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="765" windowWidth="19470" windowHeight="13245" xr2:uid="{52C131E0-3625-409F-9DBC-C4D8ECB4944A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>Event</t>
+  </si>
+  <si>
+    <t>리코</t>
+  </si>
+  <si>
+    <t>Rico</t>
   </si>
   <si>
     <t>EOF</t>
@@ -1185,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05533CD-8686-4012-9E6D-F284907C7539}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1473,9 +1479,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/CHATGAME/Assets/StreamingAssets/Excel/UI text.xlsx
+++ b/CHATGAME/Assets/StreamingAssets/Excel/UI text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\AIChatGame\AI-CHATBOT-GAME\CHATGAME\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5550308-FD33-49A2-A998-47F8469968C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B443C94-7D36-4CC2-A087-C9183D8BA723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="765" windowWidth="19470" windowHeight="13245" xr2:uid="{52C131E0-3625-409F-9DBC-C4D8ECB4944A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t>Rico</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>EOF</t>
@@ -1191,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05533CD-8686-4012-9E6D-F284907C7539}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1497,8 +1509,25 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/CHATGAME/Assets/StreamingAssets/Excel/UI text.xlsx
+++ b/CHATGAME/Assets/StreamingAssets/Excel/UI text.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\AIChatGame\AI-CHATBOT-GAME\CHATGAME\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B443C94-7D36-4CC2-A087-C9183D8BA723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E886BE8-0DD8-4F50-9BA9-5DB31F7154C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="765" windowWidth="19470" windowHeight="13245" xr2:uid="{52C131E0-3625-409F-9DBC-C4D8ECB4944A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,90 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>동아리 가입한거 환영해.
+부원으로서 할 일은 나랑 대화하는거야.
+절대 내가 외로워서 그런거 아니니까!</t>
+  </si>
+  <si>
+    <t>サークルに加入したことを歓迎するよ。
+部員としてやるべきことは、俺と話すことだね。
+絶対に俺が寂しいからじゃないからね！</t>
+  </si>
+  <si>
+    <t>加入社团欢迎你。
+作为社员，你的任务就是和我聊天。
+绝对不是因为我寂寞才这样说的！</t>
+  </si>
+  <si>
+    <t>Welcome to the club.
+As a member, your job is to talk to me.
+It's definitely not because I'm lonely or anything!</t>
+  </si>
+  <si>
+    <t>너 혹시 SNS 해?
+그냥...궁금해서
+내가 올린 영화 감상평이나 사진에 좋아요 한번씩 눌러줘
+이것도 부원의 임무야!</t>
+  </si>
+  <si>
+    <t>君、SNSやってるの？
+別に…気になっただけ。
+俺が投稿した映画の感想とか写真に、いいね一回くらい押してよ。
+これも部員の仕事だからね！</t>
+  </si>
+  <si>
+    <t>你是不是有社交媒体？
+就...随便问问。
+如果看到我发的电影评论或者照片，给我点个赞吧。
+这也是作为社员的任务哦！</t>
+  </si>
+  <si>
+    <t>Do you use social media?
+Just... curious.
+If you see my movie reviews or photos, give them a like.
+That's also part of your duties as a member!</t>
+  </si>
+  <si>
+    <t>잠깐 시간 괜찮을까?
+같이 카페나 가자
+데이트 같은거 아니니까 착각하지 말라구!</t>
+  </si>
+  <si>
+    <t>ちょっと時間ある？
+一緒にカフェでも行こう。
+デートとかじゃないから、勘違いしないでよ！</t>
+  </si>
+  <si>
+    <t>稍微有时间吗？
+一起去咖啡厅吧。
+不是约会什么的，别误会了！</t>
+  </si>
+  <si>
+    <t>Got a minute?
+Let's go to a café.
+It's not a date or anything, so don't get the wrong idea!</t>
+  </si>
+  <si>
+    <t>쓰다듬어줘.
+아니...그냥 쓰다듬어줘!
+너니까 특별히 허락해주는거야.</t>
+  </si>
+  <si>
+    <t>撫でてよ。
+違う…ただ撫でてって言ってるの！
+だから、君には特別に許してあげるんだからね</t>
+  </si>
+  <si>
+    <t>摸摸我。
+不是…就是摸摸我！
+因为是你，所以特别允许你做这个</t>
+  </si>
+  <si>
+    <t>Pet me.
+No... I just want you to pet me!
+I'm only allowing this because it's you.</t>
   </si>
   <si>
     <t>EOF</t>
@@ -1203,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05533CD-8686-4012-9E6D-F284907C7539}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1525,9 +1609,77 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" ht="82.5">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>67</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="82.5">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="54.75">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="68.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
